--- a/medicine/Enfance/Vincent_Fleury/Vincent_Fleury.xlsx
+++ b/medicine/Enfance/Vincent_Fleury/Vincent_Fleury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Fleury, est un biophysicien et écrivain français né le 20 décembre 1963 en Tunisie. Il est directeur de recherche au CNRS. Il publie également des romans, surtout policier et jeunesse, sous le pseudonyme de Vincent Meyer.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent Fleury passe son enfance en Amérique du Sud. Alors qu'il est âgé de neuf ans, sa famille vient s'installer à Paris. Après être passé en classe préparatoire (taupe) au lycée Henri IV, il est reçu en 1984 à l'École polytechnique. En 1990, il obtient un doctorat en physique de l'École polytechnique, soutenant une thèse intitulée « Croissance par voie électrochimique d'agrégats métalliques ramifiés »[1] ; il s’intéresse au développement embryonnaire, ses travaux portent sur l’auto-organisation des vaisseaux sanguins.
-Il est directeur de recherche du CNRS en section 5, consacrée à la matière condensée. En 2003, il travaille à l'École polytechnique dans le laboratoire de physique de la matière condensée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Fleury passe son enfance en Amérique du Sud. Alors qu'il est âgé de neuf ans, sa famille vient s'installer à Paris. Après être passé en classe préparatoire (taupe) au lycée Henri IV, il est reçu en 1984 à l'École polytechnique. En 1990, il obtient un doctorat en physique de l'École polytechnique, soutenant une thèse intitulée « Croissance par voie électrochimique d'agrégats métalliques ramifiés » ; il s’intéresse au développement embryonnaire, ses travaux portent sur l’auto-organisation des vaisseaux sanguins.
+Il est directeur de recherche du CNRS en section 5, consacrée à la matière condensée. En 2003, il travaille à l'École polytechnique dans le laboratoire de physique de la matière condensée.
 Il publie des ouvrages de vulgarisation scientifique.
 Sous le nom de plume Vincent Meyer, il a également publié plusieurs romans, notamment policiers et pour enfants.
 </t>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphogenèse
-Vincent Fleury est spécialiste de morphogenèse[3],[4].
+          <t>Morphogenèse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Fleury est spécialiste de morphogenèse,.
 Il étudie les mécanismes physiques de la croissance des cristaux et les bases physiques du développement embryonnaire dans le but de comprendre l'auto-organisation des vaisseaux sanguins.
 Il propose également des thèses personnelles sur la formation et l'évolution des vertébrés tétrapodes.
 </t>
@@ -579,11 +598,13 @@
           <t>Œuvre littéraire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous le nom de plume de Vincent Meyer, Vincent Fleury écrit deux romans policiers, Rails et La Hotte, publiés au sein de la collection Série noire de l'éditeur Gallimard en 1998 et 2001.
-Il se consacre également à la littérature d'enfance et de jeunesse en publiant Le Capteur de molécules chez Folio junior en 2002, et Feu mystérieux en Australie dans la collection de Nathan C'est pas sorcier en 2007[5].
-En 2006, il publie Entresol, roman reprenant une mise en abyme et des aspects du roman policier, décrit par la critique comme un puzzle littéraire[6],[7].
+Il se consacre également à la littérature d'enfance et de jeunesse en publiant Le Capteur de molécules chez Folio junior en 2002, et Feu mystérieux en Australie dans la collection de Nathan C'est pas sorcier en 2007.
+En 2006, il publie Entresol, roman reprenant une mise en abyme et des aspects du roman policier, décrit par la critique comme un puzzle littéraire,.
 </t>
         </is>
       </c>
